--- a/result/problem_1/erf/result_9.xlsx
+++ b/result/problem_1/erf/result_9.xlsx
@@ -657,10 +657,10 @@
         <v>11375149</v>
       </c>
       <c r="C10" t="n">
-        <v>1650</v>
+        <v>1925</v>
       </c>
       <c r="D10" t="n">
-        <v>1925</v>
+        <v>2200</v>
       </c>
       <c r="E10" t="n">
         <v>6750</v>
@@ -683,7 +683,7 @@
         <v>825</v>
       </c>
       <c r="D11" t="n">
-        <v>2200</v>
+        <v>1925</v>
       </c>
       <c r="E11" t="n">
         <v>6750</v>
